--- a/Reliance.xlsx
+++ b/Reliance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>ID</t>
   </si>
@@ -49,6 +49,18 @@
     <t>Duration</t>
   </si>
   <si>
+    <t>AT321808 Corp</t>
+  </si>
+  <si>
+    <t>XS1854920870</t>
+  </si>
+  <si>
+    <t>SKENER</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
     <t>ZR833883 Corp</t>
   </si>
   <si>
@@ -58,18 +70,6 @@
     <t>LYB</t>
   </si>
   <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>AT321808 Corp</t>
-  </si>
-  <si>
-    <t>XS1854920870</t>
-  </si>
-  <si>
-    <t>SKENER</t>
-  </si>
-  <si>
     <t>EK095429 Corp</t>
   </si>
   <si>
@@ -133,6 +133,21 @@
     <t>XS1230254150</t>
   </si>
   <si>
+    <t>ZQ436270 Corp</t>
+  </si>
+  <si>
+    <t>US82939GAL23</t>
+  </si>
+  <si>
+    <t>SINOPE</t>
+  </si>
+  <si>
+    <t>AZ906312 Corp</t>
+  </si>
+  <si>
+    <t>US82939GAF54</t>
+  </si>
+  <si>
     <t>AQ107030 Corp</t>
   </si>
   <si>
@@ -145,34 +160,64 @@
     <t>US759470AS67</t>
   </si>
   <si>
+    <t>ZQ436249 Corp</t>
+  </si>
+  <si>
+    <t>US82939GAK40</t>
+  </si>
+  <si>
+    <t>AU399561 Corp</t>
+  </si>
+  <si>
+    <t>US82939GAA67</t>
+  </si>
+  <si>
     <t>EK711338 Corp</t>
   </si>
   <si>
     <t>US759470AQ02</t>
   </si>
   <si>
+    <t>JK574217 Corp</t>
+  </si>
+  <si>
+    <t>US759470AU14</t>
+  </si>
+  <si>
+    <t>AL601987 Corp</t>
+  </si>
+  <si>
+    <t>US759470AW79</t>
+  </si>
+  <si>
+    <t>EC223801 Corp</t>
+  </si>
+  <si>
+    <t>XS0079545223</t>
+  </si>
+  <si>
     <t>EI868863 Corp</t>
   </si>
   <si>
     <t>US552081AC57</t>
   </si>
   <si>
-    <t>EC223801 Corp</t>
-  </si>
-  <si>
-    <t>XS0079545223</t>
-  </si>
-  <si>
-    <t>AL601987 Corp</t>
-  </si>
-  <si>
-    <t>US759470AW79</t>
-  </si>
-  <si>
-    <t>JK574217 Corp</t>
-  </si>
-  <si>
-    <t>US759470AU14</t>
+    <t>AZ906328 Corp</t>
+  </si>
+  <si>
+    <t>US82939GAJ76</t>
+  </si>
+  <si>
+    <t>AU408898 Corp</t>
+  </si>
+  <si>
+    <t>US82939GAC24</t>
+  </si>
+  <si>
+    <t>UV540206 Corp</t>
+  </si>
+  <si>
+    <t>US759470AT41</t>
   </si>
   <si>
     <t>ZQ219822 Corp</t>
@@ -184,16 +229,28 @@
     <t>PTTTB</t>
   </si>
   <si>
+    <t>AZ906317 Corp</t>
+  </si>
+  <si>
+    <t>US82939GAH11</t>
+  </si>
+  <si>
     <t>EJ108748 Corp</t>
   </si>
   <si>
     <t>US552081AH45</t>
   </si>
   <si>
-    <t>UV540206 Corp</t>
-  </si>
-  <si>
-    <t>US759470AT41</t>
+    <t>ZQ436285 Corp</t>
+  </si>
+  <si>
+    <t>US82939GAM06</t>
+  </si>
+  <si>
+    <t>TT329596 Corp</t>
+  </si>
+  <si>
+    <t>US759470AG20</t>
   </si>
   <si>
     <t>EJ333915 Corp</t>
@@ -202,10 +259,16 @@
     <t>US69367CAD74</t>
   </si>
   <si>
-    <t>TT329596 Corp</t>
-  </si>
-  <si>
-    <t>US759470AG20</t>
+    <t>AU399632 Corp</t>
+  </si>
+  <si>
+    <t>US82939GAB41</t>
+  </si>
+  <si>
+    <t>ZQ220188 Corp</t>
+  </si>
+  <si>
+    <t>US69374WAB81</t>
   </si>
   <si>
     <t>DD009176 Corp</t>
@@ -214,22 +277,22 @@
     <t>US759470AH03</t>
   </si>
   <si>
-    <t>ZQ220188 Corp</t>
-  </si>
-  <si>
-    <t>US69374WAB81</t>
+    <t>EF039152 Corp</t>
+  </si>
+  <si>
+    <t>US69367CAB19</t>
+  </si>
+  <si>
+    <t>AU399914 Corp</t>
+  </si>
+  <si>
+    <t>US82939GAD07</t>
   </si>
   <si>
     <t>DD006128 Corp</t>
   </si>
   <si>
     <t>US759470AD98</t>
-  </si>
-  <si>
-    <t>EF039152 Corp</t>
-  </si>
-  <si>
-    <t>US69367CAB19</t>
   </si>
 </sst>
 </file>
@@ -586,7 +649,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,19 +712,19 @@
         <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="I2" t="n">
-        <v>214.6842346191406</v>
+        <v>108.4174880981445</v>
       </c>
       <c r="J2" t="n">
-        <v>3.702029228210449</v>
+        <v>2.325169324874878</v>
       </c>
       <c r="K2" t="n">
-        <v>17.17188453674316</v>
+        <v>3.140045166015625</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -684,19 +747,19 @@
         <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="I3" t="n">
-        <v>104.8358154296875</v>
+        <v>225.9489288330078</v>
       </c>
       <c r="J3" t="n">
-        <v>2.377608299255371</v>
+        <v>3.7312331199646</v>
       </c>
       <c r="K3" t="n">
-        <v>3.142524719238281</v>
+        <v>17.1252498626709</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -707,7 +770,7 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -722,16 +785,16 @@
         <v>1000</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="I4" t="n">
-        <v>221.1572418212891</v>
+        <v>230.5772857666016</v>
       </c>
       <c r="J4" t="n">
-        <v>3.814522266387939</v>
+        <v>3.771607160568237</v>
       </c>
       <c r="K4" t="n">
-        <v>14.60717010498047</v>
+        <v>14.5878849029541</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -742,7 +805,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -757,16 +820,16 @@
         <v>1000</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="I5" t="n">
-        <v>101.5602111816406</v>
+        <v>105.4314193725586</v>
       </c>
       <c r="J5" t="n">
-        <v>2.374017477035522</v>
+        <v>2.32118558883667</v>
       </c>
       <c r="K5" t="n">
-        <v>6.035499572753906</v>
+        <v>6.03515100479126</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -777,7 +840,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -792,16 +855,16 @@
         <v>998.2</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="I6" t="n">
-        <v>43.45456695556641</v>
+        <v>44.63459396362305</v>
       </c>
       <c r="J6" t="n">
-        <v>1.852441787719727</v>
+        <v>1.806426167488098</v>
       </c>
       <c r="K6" t="n">
-        <v>1.404598712921143</v>
+        <v>1.403509020805359</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -812,7 +875,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -827,16 +890,16 @@
         <v>1000</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="I7" t="n">
-        <v>243.0325927734375</v>
+        <v>250.0707550048828</v>
       </c>
       <c r="J7" t="n">
-        <v>3.980798721313477</v>
+        <v>3.986601591110229</v>
       </c>
       <c r="K7" t="n">
-        <v>17.84059906005859</v>
+        <v>17.81632995605469</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -847,7 +910,7 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -862,16 +925,16 @@
         <v>750</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="I8" t="n">
-        <v>228.8365631103516</v>
+        <v>235.8436431884766</v>
       </c>
       <c r="J8" t="n">
-        <v>3.850571155548096</v>
+        <v>3.827274799346924</v>
       </c>
       <c r="K8" t="n">
-        <v>14.36672592163086</v>
+        <v>14.36166667938232</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -882,7 +945,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -897,16 +960,16 @@
         <v>999.55</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="I9" t="n">
-        <v>63.63776779174805</v>
+        <v>65.71961975097656</v>
       </c>
       <c r="J9" t="n">
-        <v>1.95069432258606</v>
+        <v>1.91098940372467</v>
       </c>
       <c r="K9" t="n">
-        <v>3.491763353347778</v>
+        <v>3.495178937911987</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -932,7 +995,7 @@
         <v>12.45</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="I10" t="s"/>
       <c r="J10" t="s"/>
@@ -946,7 +1009,7 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -961,16 +1024,16 @@
         <v>750</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="I11" t="n">
-        <v>60.38359069824219</v>
+        <v>61.90995788574219</v>
       </c>
       <c r="J11" t="n">
-        <v>1.915454626083374</v>
+        <v>1.871509313583374</v>
       </c>
       <c r="K11" t="n">
-        <v>3.161708831787109</v>
+        <v>3.15962028503418</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -996,16 +1059,16 @@
         <v>116.389894</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="I12" t="n">
-        <v>35.96821975708008</v>
+        <v>38.28964233398438</v>
       </c>
       <c r="J12" t="n">
-        <v>1.677092552185059</v>
+        <v>1.651510000228882</v>
       </c>
       <c r="K12" t="n">
-        <v>3.010268449783325</v>
+        <v>3.009211301803589</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1031,16 +1094,16 @@
         <v>200</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="I13" t="n">
-        <v>224.0122985839844</v>
+        <v>257.0770874023438</v>
       </c>
       <c r="J13" t="n">
-        <v>4.124609470367432</v>
+        <v>4.228455066680908</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9940797686576843</v>
+        <v>1.346376657485962</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1051,7 +1114,7 @@
         <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -1063,31 +1126,31 @@
         <v>14</v>
       </c>
       <c r="G14" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="I14" t="n">
-        <v>137.5332794189453</v>
+        <v>106.3093872070312</v>
       </c>
       <c r="J14" t="n">
-        <v>2.725686311721802</v>
+        <v>2.419015169143677</v>
       </c>
       <c r="K14" t="n">
-        <v>6.71846866607666</v>
+        <v>8.321366310119629</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
         <v>41</v>
       </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
       <c r="D15" t="s">
         <v>14</v>
       </c>
@@ -1098,27 +1161,27 @@
         <v>14</v>
       </c>
       <c r="G15" t="n">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="I15" t="n">
-        <v>178.1105346679688</v>
+        <v>80.09970092773438</v>
       </c>
       <c r="J15" t="n">
-        <v>3.322833061218262</v>
+        <v>2.039626836776733</v>
       </c>
       <c r="K15" t="n">
-        <v>15.62907028198242</v>
+        <v>4.158584117889404</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -1133,30 +1196,30 @@
         <v>14</v>
       </c>
       <c r="G16" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="I16" t="n">
-        <v>123.4375381469727</v>
+        <v>139.0151062011719</v>
       </c>
       <c r="J16" t="n">
-        <v>2.539438962936401</v>
+        <v>2.694328308105469</v>
       </c>
       <c r="K16" t="n">
-        <v>4.453887462615967</v>
+        <v>6.718649387359619</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>14</v>
@@ -1168,30 +1231,30 @@
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>1.8</v>
+        <v>750</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="I17" t="n">
-        <v>43.45456695556641</v>
+        <v>180.9718627929688</v>
       </c>
       <c r="J17" t="n">
-        <v>1.852441787719727</v>
+        <v>3.292086601257324</v>
       </c>
       <c r="K17" t="n">
-        <v>1.404598712921143</v>
+        <v>15.65832996368408</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -1203,30 +1266,30 @@
         <v>14</v>
       </c>
       <c r="G18" t="n">
-        <v>5.110565</v>
+        <v>700</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="I18" t="n">
-        <v>132.9475402832031</v>
+        <v>80.73384857177734</v>
       </c>
       <c r="J18" t="n">
-        <v>2.678495645523071</v>
+        <v>2.040402412414551</v>
       </c>
       <c r="K18" t="n">
-        <v>5.97306489944458</v>
+        <v>4.367446422576904</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -1238,27 +1301,27 @@
         <v>14</v>
       </c>
       <c r="G19" t="n">
-        <v>129.413682</v>
+        <v>750</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="I19" t="n">
-        <v>147.1242523193359</v>
+        <v>79.69461059570312</v>
       </c>
       <c r="J19" t="n">
-        <v>2.783658266067505</v>
+        <v>2.035553455352783</v>
       </c>
       <c r="K19" t="n">
-        <v>2.946967840194702</v>
+        <v>3.268692255020142</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
@@ -1273,30 +1336,30 @@
         <v>14</v>
       </c>
       <c r="G20" t="n">
-        <v>114.4296</v>
+        <v>1000</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="I20" t="n">
-        <v>132.5169372558594</v>
+        <v>124.6999206542969</v>
       </c>
       <c r="J20" t="n">
-        <v>2.636592626571655</v>
+        <v>2.501212596893311</v>
       </c>
       <c r="K20" t="n">
-        <v>2.96312427520752</v>
+        <v>4.452563285827637</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -1308,19 +1371,19 @@
         <v>14</v>
       </c>
       <c r="G21" t="n">
-        <v>244.955</v>
+        <v>114.4296</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="I21" t="n">
-        <v>162.2327423095703</v>
+        <v>134.3458404541016</v>
       </c>
       <c r="J21" t="n">
-        <v>3.096461772918701</v>
+        <v>2.602494478225708</v>
       </c>
       <c r="K21" t="n">
-        <v>10.94497680664062</v>
+        <v>2.962241649627686</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1331,7 +1394,7 @@
         <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
         <v>14</v>
@@ -1343,19 +1406,19 @@
         <v>14</v>
       </c>
       <c r="G22" t="n">
-        <v>0.45</v>
+        <v>129.413682</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="I22" t="n">
-        <v>63.63776779174805</v>
+        <v>148.925048828125</v>
       </c>
       <c r="J22" t="n">
-        <v>1.95069432258606</v>
+        <v>2.747722387313843</v>
       </c>
       <c r="K22" t="n">
-        <v>3.491763353347778</v>
+        <v>2.946112394332886</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1378,19 +1441,19 @@
         <v>14</v>
       </c>
       <c r="G23" t="n">
-        <v>135</v>
+        <v>5.110565</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="I23" t="n">
-        <v>135.9758148193359</v>
+        <v>133.8368225097656</v>
       </c>
       <c r="J23" t="n">
-        <v>2.672928333282471</v>
+        <v>2.658209323883057</v>
       </c>
       <c r="K23" t="n">
-        <v>2.950088262557983</v>
+        <v>5.966052532196045</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1401,7 +1464,7 @@
         <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
@@ -1413,19 +1476,19 @@
         <v>14</v>
       </c>
       <c r="G24" t="n">
-        <v>240.51</v>
+        <v>1.8</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="I24" t="n">
-        <v>170.4694213867188</v>
+        <v>44.63459396362305</v>
       </c>
       <c r="J24" t="n">
-        <v>3.236199617385864</v>
+        <v>1.806426167488098</v>
       </c>
       <c r="K24" t="n">
-        <v>14.82853317260742</v>
+        <v>1.403509020805359</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1436,7 +1499,7 @@
         <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
@@ -1448,19 +1511,19 @@
         <v>14</v>
       </c>
       <c r="G25" t="n">
-        <v>9.631449999999999</v>
+        <v>500</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="I25" t="n">
-        <v>203.3070220947266</v>
+        <v>152.7013092041016</v>
       </c>
       <c r="J25" t="n">
-        <v>3.551992416381836</v>
+        <v>3.00764536857605</v>
       </c>
       <c r="K25" t="n">
-        <v>13.88982582092285</v>
+        <v>18.60702896118164</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1471,7 +1534,7 @@
         <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
@@ -1483,19 +1546,19 @@
         <v>14</v>
       </c>
       <c r="G26" t="n">
-        <v>34.004914</v>
+        <v>750</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="I26" t="n">
-        <v>229.2924499511719</v>
+        <v>106.5041351318359</v>
       </c>
       <c r="J26" t="n">
-        <v>3.634053468704224</v>
+        <v>2.399399280548096</v>
       </c>
       <c r="K26" t="n">
-        <v>5.450674533843994</v>
+        <v>7.153722286224365</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1506,7 +1569,7 @@
         <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
@@ -1518,19 +1581,19 @@
         <v>14</v>
       </c>
       <c r="G27" t="n">
-        <v>330.09</v>
+        <v>135</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="I27" t="n">
-        <v>171.1351928710938</v>
+        <v>208.6466217041016</v>
       </c>
       <c r="J27" t="n">
-        <v>3.244042158126831</v>
+        <v>3.321891307830811</v>
       </c>
       <c r="K27" t="n">
-        <v>14.82234287261963</v>
+        <v>2.918745994567871</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1541,7 +1604,7 @@
         <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>
@@ -1553,54 +1616,404 @@
         <v>14</v>
       </c>
       <c r="G28" t="n">
-        <v>22.014742</v>
+        <v>244.955</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="I28" t="n">
-        <v>187.0113372802734</v>
+        <v>163.8214874267578</v>
       </c>
       <c r="J28" t="n">
-        <v>3.189472436904907</v>
+        <v>3.046288013458252</v>
       </c>
       <c r="K28" t="n">
-        <v>4.99768590927124</v>
+        <v>10.95634269714355</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="n">
+        <v>700</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>43885</v>
+      </c>
+      <c r="I29" t="n">
+        <v>105.727180480957</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.405721664428711</v>
+      </c>
+      <c r="K29" t="n">
+        <v>8.175333976745605</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>43885</v>
+      </c>
+      <c r="I30" t="n">
+        <v>65.71961975097656</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.91098940372467</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.495178937911987</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="n">
+        <v>300</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>43885</v>
+      </c>
+      <c r="I31" t="n">
+        <v>152.9828033447266</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.010571241378784</v>
+      </c>
+      <c r="K31" t="n">
+        <v>18.83521270751953</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" t="n">
+        <v>9.631449999999999</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>43885</v>
+      </c>
+      <c r="I32" t="n">
+        <v>205.2513122558594</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.491299629211426</v>
+      </c>
+      <c r="K32" t="n">
+        <v>13.92861461639404</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
         <v>70</v>
       </c>
-      <c r="B29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" t="n">
+        <v>240.51</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>43885</v>
+      </c>
+      <c r="I33" t="n">
+        <v>172.6284637451172</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.194885015487671</v>
+      </c>
+      <c r="K33" t="n">
+        <v>14.85671234130859</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" t="n">
+        <v>500</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>43885</v>
+      </c>
+      <c r="I34" t="n">
+        <v>88.97061157226562</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.139761447906494</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4.904489517211914</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" t="n">
+        <v>330.09</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>43885</v>
+      </c>
+      <c r="I35" t="n">
+        <v>173.4295501708984</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.201047658920288</v>
+      </c>
+      <c r="K35" t="n">
+        <v>14.84958839416504</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" t="n">
+        <v>34.004914</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>43885</v>
+      </c>
+      <c r="I36" t="n">
+        <v>231.5850524902344</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.580209016799927</v>
+      </c>
+      <c r="K36" t="n">
+        <v>5.45028018951416</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" t="n">
         <v>53.297</v>
       </c>
-      <c r="H29" s="2" t="n">
-        <v>43882</v>
-      </c>
-      <c r="I29" t="n">
-        <v>164.0731201171875</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.141256093978882</v>
-      </c>
-      <c r="K29" t="n">
-        <v>10.93911933898926</v>
+      <c r="H37" s="2" t="n">
+        <v>43885</v>
+      </c>
+      <c r="I37" t="n">
+        <v>166.9778442382812</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.081673383712769</v>
+      </c>
+      <c r="K37" t="n">
+        <v>10.94631004333496</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="n">
+        <v>400</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>43885</v>
+      </c>
+      <c r="I38" t="n">
+        <v>153.4533996582031</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.016035556793213</v>
+      </c>
+      <c r="K38" t="n">
+        <v>17.22554588317871</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" t="n">
+        <v>22.014742</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>43885</v>
+      </c>
+      <c r="I39" t="n">
+        <v>187.8232574462891</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.128621101379395</v>
+      </c>
+      <c r="K39" t="n">
+        <v>4.997922420501709</v>
       </c>
     </row>
   </sheetData>
